--- a/_ODDBETING/SEP18/SEP18_5%.xlsx
+++ b/_ODDBETING/SEP18/SEP18_5%.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAURICIO MOLINA\PERSONALES\NEGOCIOS\APUESTAS\SISTEMAS\_ODDBETING\SEP18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAURICIO MOLINA\PERSONALES\NEGOCIOS\APUESTAS\PORTAFOLIO\_ODDBETING\SEP18\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="71">
   <si>
     <t>USUARIO</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>HISTORIAL</t>
-  </si>
-  <si>
-    <t>Evento</t>
   </si>
   <si>
     <t>Pick</t>
@@ -264,6 +261,12 @@
   </si>
   <si>
     <t>US OPEN - MLB</t>
+  </si>
+  <si>
+    <t>TENIS</t>
+  </si>
+  <si>
+    <t>Deporte</t>
   </si>
 </sst>
 </file>
@@ -706,47 +709,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,6 +762,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1304,7 +1307,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto1" spid="_x0000_s4365"/>
+                  <a14:cameraTool cellRange="foto1" spid="_x0000_s4530"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1352,7 +1355,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto2x" spid="_x0000_s4366"/>
+                  <a14:cameraTool cellRange="foto2x" spid="_x0000_s4531"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1400,7 +1403,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto3x" spid="_x0000_s4367"/>
+                  <a14:cameraTool cellRange="foto3x" spid="_x0000_s4532"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1448,7 +1451,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto4x" spid="_x0000_s4368"/>
+                  <a14:cameraTool cellRange="foto4x" spid="_x0000_s4533"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1496,7 +1499,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto6x" spid="_x0000_s4369"/>
+                  <a14:cameraTool cellRange="foto6x" spid="_x0000_s4534"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1544,7 +1547,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto7x" spid="_x0000_s4370"/>
+                  <a14:cameraTool cellRange="foto7x" spid="_x0000_s4535"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1592,7 +1595,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto8x" spid="_x0000_s4371"/>
+                  <a14:cameraTool cellRange="foto8x" spid="_x0000_s4536"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1640,13 +1643,13 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto9x" spid="_x0000_s4372"/>
+                  <a14:cameraTool cellRange="foto9x" spid="_x0000_s4537"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1688,13 +1691,13 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="foto10x" spid="_x0000_s4373"/>
+                  <a14:cameraTool cellRange="foto10x" spid="_x0000_s4538"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -2035,7 +2038,7 @@
   <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,79 +2070,79 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="S2" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
+      <c r="S2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
       <c r="S3" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="37"/>
       <c r="V3" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" s="37"/>
       <c r="X3" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2168,10 +2171,10 @@
         <v>12</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>13</v>
@@ -2184,46 +2187,46 @@
       </c>
       <c r="U4" s="35"/>
       <c r="V4" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="35"/>
     </row>
     <row r="5" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="10">
         <v>100</v>
       </c>
       <c r="F5" s="11">
         <f>E5+H5</f>
-        <v>103.681</v>
+        <v>117.65899999999999</v>
       </c>
       <c r="G5" s="11">
         <f>SUM(F11:F500)</f>
-        <v>43.050000000000004</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="H5" s="16">
         <f>SUM(L11:L500)</f>
-        <v>3.6810000000000009</v>
+        <v>17.658999999999999</v>
       </c>
       <c r="I5" s="12">
         <f>(F5-E5)/E5</f>
-        <v>3.6809999999999975E-2</v>
+        <v>0.17658999999999991</v>
       </c>
       <c r="J5" s="12">
         <f>(H5/G5)</f>
-        <v>8.5505226480836249E-2</v>
+        <v>0.31646953405017919</v>
       </c>
       <c r="L5" s="18">
         <f>COUNTIF(K11:K500,"w")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M5" s="3">
         <f>COUNTIF(K11:K500,"l")</f>
@@ -2235,25 +2238,25 @@
       </c>
       <c r="O5" s="22">
         <f>L5+M5+N5</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P5" s="23">
         <f>SUM(G11:G198)/O5</f>
-        <v>2.1479999999999997</v>
+        <v>1.5366666666666664</v>
       </c>
       <c r="Q5" s="17">
         <f>L5/(L5+M5)</f>
-        <v>0.8</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
       <c r="V5" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="35"/>
     </row>
@@ -2264,7 +2267,7 @@
       <c r="V6" s="35"/>
       <c r="W6" s="35"/>
       <c r="X6" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="35"/>
     </row>
@@ -2275,135 +2278,135 @@
       <c r="V7" s="35"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="35"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="35"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y9" s="35"/>
     </row>
     <row r="10" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
+      <c r="N10" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="72"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
     <row r="11" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="36" t="str">
         <f>VLOOKUP(C11,$X$4:$Y$10,1,FALSE)</f>
         <v>LUCKIA</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5">
         <v>5</v>
@@ -2412,7 +2415,7 @@
         <v>1.56</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="33">
         <f>($E$5*S4)/100*(T4)</f>
@@ -2423,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="8">
         <f>IF((K11)="w",F11*G11-F11,IF((K11)="L",-F11,0))</f>
@@ -2433,26 +2436,26 @@
         <f>E5+L11</f>
         <v>102.8</v>
       </c>
-      <c r="N11" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
+      <c r="N11" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="74"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="36" t="str">
         <f t="shared" ref="D12:D75" si="0">VLOOKUP(C12,$X$4:$Y$10,1,FALSE)</f>
         <v>WPLAY</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7">
         <v>5</v>
@@ -2461,7 +2464,7 @@
         <v>1.46</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="34">
         <f>($E$5*0.1)*1.55</f>
@@ -2472,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ref="L12:L75" si="1">IF((K12)="w",F12*G12-F12,IF((K12)="L",-F12,0))</f>
@@ -2482,26 +2485,26 @@
         <f>L12+M11</f>
         <v>105.1</v>
       </c>
-      <c r="N12" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="N12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="36" t="str">
         <f t="shared" si="0"/>
         <v>WPLAY</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7">
         <v>7.8</v>
@@ -2510,7 +2513,7 @@
         <v>1.57</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="34">
         <f t="shared" ref="I13:I76" si="2">($E$5*0.1)*1.55</f>
@@ -2521,7 +2524,7 @@
         <v>7.3</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="1"/>
@@ -2531,26 +2534,26 @@
         <f t="shared" ref="M13:M33" si="4">L13+M12</f>
         <v>97.3</v>
       </c>
-      <c r="N13" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="N13" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="36" t="str">
         <f t="shared" si="0"/>
         <v>WPLAY</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7">
         <v>7.3</v>
@@ -2559,7 +2562,7 @@
         <v>1.47</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="34">
         <f t="shared" si="2"/>
@@ -2570,7 +2573,7 @@
         <v>-2.8</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="1"/>
@@ -2580,26 +2583,26 @@
         <f t="shared" si="4"/>
         <v>100.73099999999999</v>
       </c>
-      <c r="N14" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="N14" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="36" t="str">
         <f t="shared" si="0"/>
         <v>LUCKIA</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7">
         <v>5</v>
@@ -2608,7 +2611,7 @@
         <v>1.59</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="34">
         <f t="shared" si="2"/>
@@ -2619,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="1"/>
@@ -2629,24 +2632,24 @@
         <f t="shared" si="4"/>
         <v>103.681</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="36" t="str">
         <f t="shared" si="0"/>
         <v>LUCKIA</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7">
         <v>5</v>
@@ -2655,7 +2658,7 @@
         <v>1.55</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="34">
         <f t="shared" si="2"/>
@@ -2665,35 +2668,37 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="L16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
+        <v>106.431</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="36" t="str">
         <f t="shared" si="0"/>
         <v>BETPLAY</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7">
         <v>7.95</v>
@@ -2702,7 +2707,7 @@
         <v>1.54</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="34">
         <f t="shared" si="2"/>
@@ -2710,75 +2715,99 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K17" s="20"/>
+        <v>7.75</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="L17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2930000000000001</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N17" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
+        <v>110.724</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="41"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D18" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>NOT</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="31"/>
+        <v>BETPLAY</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7.75</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="I18" s="34">
         <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="20"/>
+        <v>9.2929999999999993</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="L18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
+        <v>114.90900000000001</v>
+      </c>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="C19" s="32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D19" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>NOT</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="31"/>
+        <v>BETPLAY</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="25">
+        <v>5</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1.55</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="I19" s="34">
         <f t="shared" si="2"/>
         <v>15.5</v>
@@ -2787,24 +2816,26 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="L19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2820,7 +2851,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7.75</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="8">
@@ -2829,17 +2860,17 @@
       </c>
       <c r="M20" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2864,17 +2895,17 @@
       </c>
       <c r="M21" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2899,17 +2930,17 @@
       </c>
       <c r="M22" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2934,17 +2965,17 @@
       </c>
       <c r="M23" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41"/>
       <c r="C24" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2969,20 +3000,20 @@
       </c>
       <c r="M24" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3007,17 +3038,17 @@
       </c>
       <c r="M25" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
       <c r="C26" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3042,17 +3073,17 @@
       </c>
       <c r="M26" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3077,17 +3108,17 @@
       </c>
       <c r="M27" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="41"/>
       <c r="C28" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3112,17 +3143,17 @@
       </c>
       <c r="M28" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3147,17 +3178,17 @@
       </c>
       <c r="M29" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3182,17 +3213,17 @@
       </c>
       <c r="M30" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="48"/>
     </row>
     <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="41"/>
       <c r="C31" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3217,20 +3248,20 @@
       </c>
       <c r="M31" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3255,17 +3286,17 @@
       </c>
       <c r="M32" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3290,17 +3321,17 @@
       </c>
       <c r="M33" s="7">
         <f t="shared" si="4"/>
-        <v>103.681</v>
-      </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3325,17 +3356,17 @@
       </c>
       <c r="M34" s="7">
         <f t="shared" ref="M34:M97" si="5">L34+M33</f>
-        <v>103.681</v>
-      </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="48"/>
     </row>
     <row r="35" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
       <c r="C35" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3360,17 +3391,17 @@
       </c>
       <c r="M35" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
       <c r="C36" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3395,17 +3426,17 @@
       </c>
       <c r="M36" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
       <c r="C37" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3430,17 +3461,17 @@
       </c>
       <c r="M37" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3465,17 +3496,17 @@
       </c>
       <c r="M38" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48"/>
     </row>
     <row r="39" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3500,17 +3531,17 @@
       </c>
       <c r="M39" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
       <c r="C40" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3535,17 +3566,17 @@
       </c>
       <c r="M40" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
       <c r="C41" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3570,17 +3601,17 @@
       </c>
       <c r="M41" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="48"/>
     </row>
     <row r="42" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="41"/>
       <c r="C42" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3605,17 +3636,17 @@
       </c>
       <c r="M42" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="48"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
       <c r="C43" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3640,17 +3671,17 @@
       </c>
       <c r="M43" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="41"/>
       <c r="C44" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3675,17 +3706,17 @@
       </c>
       <c r="M44" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="48"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="41"/>
       <c r="C45" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3710,17 +3741,17 @@
       </c>
       <c r="M45" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="48"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="41"/>
       <c r="C46" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3745,17 +3776,17 @@
       </c>
       <c r="M46" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="48"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="41"/>
       <c r="C47" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3780,17 +3811,17 @@
       </c>
       <c r="M47" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="48"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="41"/>
       <c r="C48" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3815,17 +3846,17 @@
       </c>
       <c r="M48" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="48"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="41"/>
       <c r="C49" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3850,17 +3881,17 @@
       </c>
       <c r="M49" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="48"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="41"/>
       <c r="C50" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3885,17 +3916,17 @@
       </c>
       <c r="M50" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
     </row>
     <row r="51" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="41"/>
       <c r="C51" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3920,17 +3951,17 @@
       </c>
       <c r="M51" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="48"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="41"/>
       <c r="C52" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3955,17 +3986,17 @@
       </c>
       <c r="M52" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="48"/>
     </row>
     <row r="53" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="41"/>
       <c r="C53" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3990,17 +4021,17 @@
       </c>
       <c r="M53" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="48"/>
     </row>
     <row r="54" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="41"/>
       <c r="C54" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4025,17 +4056,17 @@
       </c>
       <c r="M54" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="48"/>
     </row>
     <row r="55" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="41"/>
       <c r="C55" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4060,17 +4091,17 @@
       </c>
       <c r="M55" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="48"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="41"/>
       <c r="C56" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4095,17 +4126,17 @@
       </c>
       <c r="M56" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="48"/>
     </row>
     <row r="57" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="41"/>
       <c r="C57" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4130,17 +4161,17 @@
       </c>
       <c r="M57" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="48"/>
     </row>
     <row r="58" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="41"/>
       <c r="C58" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4165,17 +4196,17 @@
       </c>
       <c r="M58" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="48"/>
     </row>
     <row r="59" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="41"/>
       <c r="C59" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4200,17 +4231,17 @@
       </c>
       <c r="M59" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="48"/>
     </row>
     <row r="60" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="41"/>
       <c r="C60" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4235,17 +4266,17 @@
       </c>
       <c r="M60" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="48"/>
     </row>
     <row r="61" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="41"/>
       <c r="C61" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4270,17 +4301,17 @@
       </c>
       <c r="M61" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="48"/>
     </row>
     <row r="62" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="41"/>
       <c r="C62" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4305,17 +4336,17 @@
       </c>
       <c r="M62" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="48"/>
     </row>
     <row r="63" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="41"/>
       <c r="C63" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4340,17 +4371,17 @@
       </c>
       <c r="M63" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="48"/>
     </row>
     <row r="64" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="41"/>
       <c r="C64" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4375,17 +4406,17 @@
       </c>
       <c r="M64" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="48"/>
     </row>
     <row r="65" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="41"/>
       <c r="C65" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4410,17 +4441,17 @@
       </c>
       <c r="M65" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="48"/>
     </row>
     <row r="66" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="41"/>
       <c r="C66" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4445,17 +4476,17 @@
       </c>
       <c r="M66" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="48"/>
     </row>
     <row r="67" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="41"/>
       <c r="C67" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4480,17 +4511,17 @@
       </c>
       <c r="M67" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="48"/>
     </row>
     <row r="68" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="41"/>
       <c r="C68" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4515,17 +4546,17 @@
       </c>
       <c r="M68" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="48"/>
     </row>
     <row r="69" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="41"/>
       <c r="C69" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4550,17 +4581,17 @@
       </c>
       <c r="M69" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="48"/>
     </row>
     <row r="70" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="41"/>
       <c r="C70" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4585,17 +4616,17 @@
       </c>
       <c r="M70" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="48"/>
     </row>
     <row r="71" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="41"/>
       <c r="C71" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4620,17 +4651,17 @@
       </c>
       <c r="M71" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="48"/>
     </row>
     <row r="72" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="41"/>
       <c r="C72" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4655,17 +4686,17 @@
       </c>
       <c r="M72" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="48"/>
     </row>
     <row r="73" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="41"/>
       <c r="C73" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4690,17 +4721,17 @@
       </c>
       <c r="M73" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="48"/>
     </row>
     <row r="74" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="41"/>
       <c r="C74" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4725,17 +4756,17 @@
       </c>
       <c r="M74" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="48"/>
     </row>
     <row r="75" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="41"/>
       <c r="C75" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4760,17 +4791,17 @@
       </c>
       <c r="M75" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="48"/>
     </row>
     <row r="76" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="41"/>
       <c r="C76" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" s="36" t="str">
         <f t="shared" ref="D76:D139" si="6">VLOOKUP(C76,$X$4:$Y$10,1,FALSE)</f>
@@ -4795,17 +4826,17 @@
       </c>
       <c r="M76" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="48"/>
     </row>
     <row r="77" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="41"/>
       <c r="C77" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" s="36" t="str">
         <f t="shared" si="6"/>
@@ -4830,17 +4861,17 @@
       </c>
       <c r="M77" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N77" s="46"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="48"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="41"/>
       <c r="C78" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D78" s="36" t="str">
         <f t="shared" si="6"/>
@@ -4865,17 +4896,17 @@
       </c>
       <c r="M78" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="48"/>
     </row>
     <row r="79" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="41"/>
       <c r="C79" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D79" s="36" t="str">
         <f t="shared" si="6"/>
@@ -4900,17 +4931,17 @@
       </c>
       <c r="M79" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="48"/>
     </row>
     <row r="80" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="41"/>
       <c r="C80" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D80" s="36" t="str">
         <f t="shared" si="6"/>
@@ -4935,17 +4966,17 @@
       </c>
       <c r="M80" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="48"/>
     </row>
     <row r="81" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="41"/>
       <c r="C81" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D81" s="36" t="str">
         <f t="shared" si="6"/>
@@ -4970,17 +5001,17 @@
       </c>
       <c r="M81" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="48"/>
     </row>
     <row r="82" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="41"/>
       <c r="C82" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D82" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5005,17 +5036,17 @@
       </c>
       <c r="M82" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="48"/>
     </row>
     <row r="83" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="41"/>
       <c r="C83" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D83" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5040,17 +5071,17 @@
       </c>
       <c r="M83" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="48"/>
     </row>
     <row r="84" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="41"/>
       <c r="C84" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D84" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5075,17 +5106,17 @@
       </c>
       <c r="M84" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N84" s="46"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N84" s="47"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="48"/>
     </row>
     <row r="85" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="41"/>
       <c r="C85" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D85" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5110,17 +5141,17 @@
       </c>
       <c r="M85" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N85" s="47"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="48"/>
     </row>
     <row r="86" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="41"/>
       <c r="C86" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5145,17 +5176,17 @@
       </c>
       <c r="M86" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N86" s="46"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
-      <c r="Q86" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="48"/>
     </row>
     <row r="87" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="41"/>
       <c r="C87" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5180,17 +5211,17 @@
       </c>
       <c r="M87" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="48"/>
     </row>
     <row r="88" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="41"/>
       <c r="C88" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D88" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5215,17 +5246,17 @@
       </c>
       <c r="M88" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="48"/>
     </row>
     <row r="89" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="41"/>
       <c r="C89" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D89" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5250,17 +5281,17 @@
       </c>
       <c r="M89" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="48"/>
     </row>
     <row r="90" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="41"/>
       <c r="C90" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D90" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5285,17 +5316,17 @@
       </c>
       <c r="M90" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="48"/>
     </row>
     <row r="91" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="41"/>
       <c r="C91" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D91" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5320,17 +5351,17 @@
       </c>
       <c r="M91" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="48"/>
     </row>
     <row r="92" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="41"/>
       <c r="C92" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D92" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5355,17 +5386,17 @@
       </c>
       <c r="M92" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="48"/>
     </row>
     <row r="93" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="41"/>
       <c r="C93" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D93" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5390,17 +5421,17 @@
       </c>
       <c r="M93" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="48"/>
     </row>
     <row r="94" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="41"/>
       <c r="C94" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D94" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5425,17 +5456,17 @@
       </c>
       <c r="M94" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
-      <c r="Q94" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N94" s="47"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="48"/>
     </row>
     <row r="95" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="41"/>
       <c r="C95" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D95" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5460,17 +5491,17 @@
       </c>
       <c r="M95" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="48"/>
     </row>
     <row r="96" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="41"/>
       <c r="C96" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D96" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5495,17 +5526,17 @@
       </c>
       <c r="M96" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N96" s="47"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="48"/>
     </row>
     <row r="97" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="41"/>
       <c r="C97" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D97" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5530,17 +5561,17 @@
       </c>
       <c r="M97" s="7">
         <f t="shared" si="5"/>
-        <v>103.681</v>
-      </c>
-      <c r="N97" s="46"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
-      <c r="Q97" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N97" s="47"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="48"/>
     </row>
     <row r="98" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="41"/>
       <c r="C98" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D98" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5565,17 +5596,17 @@
       </c>
       <c r="M98" s="7">
         <f t="shared" ref="M98:M161" si="10">L98+M97</f>
-        <v>103.681</v>
-      </c>
-      <c r="N98" s="46"/>
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
-      <c r="Q98" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N98" s="47"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="48"/>
     </row>
     <row r="99" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="41"/>
       <c r="C99" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D99" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5600,17 +5631,17 @@
       </c>
       <c r="M99" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N99" s="46"/>
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
-      <c r="Q99" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N99" s="47"/>
+      <c r="O99" s="47"/>
+      <c r="P99" s="47"/>
+      <c r="Q99" s="48"/>
     </row>
     <row r="100" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="41"/>
       <c r="C100" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D100" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5635,17 +5666,17 @@
       </c>
       <c r="M100" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N100" s="47"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="48"/>
     </row>
     <row r="101" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="41"/>
       <c r="C101" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D101" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5670,17 +5701,17 @@
       </c>
       <c r="M101" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N101" s="46"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
-      <c r="Q101" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N101" s="47"/>
+      <c r="O101" s="47"/>
+      <c r="P101" s="47"/>
+      <c r="Q101" s="48"/>
     </row>
     <row r="102" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="41"/>
       <c r="C102" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D102" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5705,17 +5736,17 @@
       </c>
       <c r="M102" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N102" s="46"/>
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
-      <c r="Q102" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="47"/>
+      <c r="Q102" s="48"/>
     </row>
     <row r="103" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="41"/>
       <c r="C103" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D103" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5740,17 +5771,17 @@
       </c>
       <c r="M103" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N103" s="46"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N103" s="47"/>
+      <c r="O103" s="47"/>
+      <c r="P103" s="47"/>
+      <c r="Q103" s="48"/>
     </row>
     <row r="104" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="41"/>
       <c r="C104" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D104" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5775,17 +5806,17 @@
       </c>
       <c r="M104" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N104" s="46"/>
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N104" s="47"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="47"/>
+      <c r="Q104" s="48"/>
     </row>
     <row r="105" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="41"/>
       <c r="C105" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D105" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5810,17 +5841,17 @@
       </c>
       <c r="M105" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N105" s="46"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="47"/>
+      <c r="Q105" s="48"/>
     </row>
     <row r="106" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="41"/>
       <c r="C106" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D106" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5845,17 +5876,17 @@
       </c>
       <c r="M106" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N106" s="46"/>
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
-      <c r="Q106" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N106" s="47"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="47"/>
+      <c r="Q106" s="48"/>
     </row>
     <row r="107" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="41"/>
       <c r="C107" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D107" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5880,17 +5911,17 @@
       </c>
       <c r="M107" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N107" s="47"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="47"/>
+      <c r="Q107" s="48"/>
     </row>
     <row r="108" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="41"/>
       <c r="C108" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D108" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5915,17 +5946,17 @@
       </c>
       <c r="M108" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N108" s="46"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N108" s="47"/>
+      <c r="O108" s="47"/>
+      <c r="P108" s="47"/>
+      <c r="Q108" s="48"/>
     </row>
     <row r="109" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="41"/>
       <c r="C109" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5950,17 +5981,17 @@
       </c>
       <c r="M109" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N109" s="47"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="47"/>
+      <c r="Q109" s="48"/>
     </row>
     <row r="110" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="41"/>
       <c r="C110" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D110" s="36" t="str">
         <f t="shared" si="6"/>
@@ -5985,17 +6016,17 @@
       </c>
       <c r="M110" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N110" s="47"/>
+      <c r="O110" s="47"/>
+      <c r="P110" s="47"/>
+      <c r="Q110" s="48"/>
     </row>
     <row r="111" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="41"/>
       <c r="C111" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D111" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6020,17 +6051,17 @@
       </c>
       <c r="M111" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N111" s="46"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
-      <c r="Q111" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N111" s="47"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="47"/>
+      <c r="Q111" s="48"/>
     </row>
     <row r="112" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="41"/>
       <c r="C112" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D112" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6055,17 +6086,17 @@
       </c>
       <c r="M112" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N112" s="46"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="46"/>
-      <c r="Q112" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N112" s="47"/>
+      <c r="O112" s="47"/>
+      <c r="P112" s="47"/>
+      <c r="Q112" s="48"/>
     </row>
     <row r="113" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="41"/>
       <c r="C113" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D113" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6090,17 +6121,17 @@
       </c>
       <c r="M113" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N113" s="46"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="46"/>
-      <c r="Q113" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N113" s="47"/>
+      <c r="O113" s="47"/>
+      <c r="P113" s="47"/>
+      <c r="Q113" s="48"/>
     </row>
     <row r="114" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="41"/>
       <c r="C114" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D114" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6125,17 +6156,17 @@
       </c>
       <c r="M114" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N114" s="46"/>
-      <c r="O114" s="46"/>
-      <c r="P114" s="46"/>
-      <c r="Q114" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N114" s="47"/>
+      <c r="O114" s="47"/>
+      <c r="P114" s="47"/>
+      <c r="Q114" s="48"/>
     </row>
     <row r="115" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="41"/>
       <c r="C115" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D115" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6160,17 +6191,17 @@
       </c>
       <c r="M115" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N115" s="46"/>
-      <c r="O115" s="46"/>
-      <c r="P115" s="46"/>
-      <c r="Q115" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N115" s="47"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="47"/>
+      <c r="Q115" s="48"/>
     </row>
     <row r="116" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="41"/>
       <c r="C116" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D116" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6195,17 +6226,17 @@
       </c>
       <c r="M116" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N116" s="46"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N116" s="47"/>
+      <c r="O116" s="47"/>
+      <c r="P116" s="47"/>
+      <c r="Q116" s="48"/>
     </row>
     <row r="117" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="41"/>
       <c r="C117" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D117" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6230,17 +6261,17 @@
       </c>
       <c r="M117" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N117" s="46"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N117" s="47"/>
+      <c r="O117" s="47"/>
+      <c r="P117" s="47"/>
+      <c r="Q117" s="48"/>
     </row>
     <row r="118" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="41"/>
       <c r="C118" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D118" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6265,17 +6296,17 @@
       </c>
       <c r="M118" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N118" s="46"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N118" s="47"/>
+      <c r="O118" s="47"/>
+      <c r="P118" s="47"/>
+      <c r="Q118" s="48"/>
     </row>
     <row r="119" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="41"/>
       <c r="C119" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D119" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6300,17 +6331,17 @@
       </c>
       <c r="M119" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N119" s="47"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="48"/>
     </row>
     <row r="120" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="41"/>
       <c r="C120" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6335,17 +6366,17 @@
       </c>
       <c r="M120" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N120" s="47"/>
+      <c r="O120" s="47"/>
+      <c r="P120" s="47"/>
+      <c r="Q120" s="48"/>
     </row>
     <row r="121" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="41"/>
       <c r="C121" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D121" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6370,17 +6401,17 @@
       </c>
       <c r="M121" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N121" s="47"/>
+      <c r="O121" s="47"/>
+      <c r="P121" s="47"/>
+      <c r="Q121" s="48"/>
     </row>
     <row r="122" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="41"/>
       <c r="C122" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D122" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6405,17 +6436,17 @@
       </c>
       <c r="M122" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N122" s="46"/>
-      <c r="O122" s="46"/>
-      <c r="P122" s="46"/>
-      <c r="Q122" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N122" s="47"/>
+      <c r="O122" s="47"/>
+      <c r="P122" s="47"/>
+      <c r="Q122" s="48"/>
     </row>
     <row r="123" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="41"/>
       <c r="C123" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D123" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6440,17 +6471,17 @@
       </c>
       <c r="M123" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N123" s="47"/>
+      <c r="O123" s="47"/>
+      <c r="P123" s="47"/>
+      <c r="Q123" s="48"/>
     </row>
     <row r="124" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="41"/>
       <c r="C124" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D124" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6475,17 +6506,17 @@
       </c>
       <c r="M124" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N124" s="47"/>
+      <c r="O124" s="47"/>
+      <c r="P124" s="47"/>
+      <c r="Q124" s="48"/>
     </row>
     <row r="125" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="41"/>
       <c r="C125" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6510,17 +6541,17 @@
       </c>
       <c r="M125" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="46"/>
-      <c r="Q125" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N125" s="47"/>
+      <c r="O125" s="47"/>
+      <c r="P125" s="47"/>
+      <c r="Q125" s="48"/>
     </row>
     <row r="126" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="41"/>
       <c r="C126" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D126" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6545,17 +6576,17 @@
       </c>
       <c r="M126" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N126" s="46"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N126" s="47"/>
+      <c r="O126" s="47"/>
+      <c r="P126" s="47"/>
+      <c r="Q126" s="48"/>
     </row>
     <row r="127" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="41"/>
       <c r="C127" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D127" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6580,17 +6611,17 @@
       </c>
       <c r="M127" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="46"/>
-      <c r="Q127" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N127" s="47"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="47"/>
+      <c r="Q127" s="48"/>
     </row>
     <row r="128" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="41"/>
       <c r="C128" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6615,17 +6646,17 @@
       </c>
       <c r="M128" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N128" s="46"/>
-      <c r="O128" s="46"/>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N128" s="47"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="48"/>
     </row>
     <row r="129" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="41"/>
       <c r="C129" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D129" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6650,17 +6681,17 @@
       </c>
       <c r="M129" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N129" s="46"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="46"/>
-      <c r="Q129" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N129" s="47"/>
+      <c r="O129" s="47"/>
+      <c r="P129" s="47"/>
+      <c r="Q129" s="48"/>
     </row>
     <row r="130" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="41"/>
       <c r="C130" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D130" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6685,17 +6716,17 @@
       </c>
       <c r="M130" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N130" s="46"/>
-      <c r="O130" s="46"/>
-      <c r="P130" s="46"/>
-      <c r="Q130" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N130" s="47"/>
+      <c r="O130" s="47"/>
+      <c r="P130" s="47"/>
+      <c r="Q130" s="48"/>
     </row>
     <row r="131" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="41"/>
       <c r="C131" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D131" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6720,17 +6751,17 @@
       </c>
       <c r="M131" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N131" s="46"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="46"/>
-      <c r="Q131" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N131" s="47"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="48"/>
     </row>
     <row r="132" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="41"/>
       <c r="C132" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D132" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6755,17 +6786,17 @@
       </c>
       <c r="M132" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N132" s="47"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="48"/>
     </row>
     <row r="133" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="41"/>
       <c r="C133" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D133" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6790,17 +6821,17 @@
       </c>
       <c r="M133" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N133" s="47"/>
+      <c r="O133" s="47"/>
+      <c r="P133" s="47"/>
+      <c r="Q133" s="48"/>
     </row>
     <row r="134" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="41"/>
       <c r="C134" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D134" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6825,17 +6856,17 @@
       </c>
       <c r="M134" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="46"/>
-      <c r="Q134" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N134" s="47"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="47"/>
+      <c r="Q134" s="48"/>
     </row>
     <row r="135" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="41"/>
       <c r="C135" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D135" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6860,17 +6891,17 @@
       </c>
       <c r="M135" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="46"/>
-      <c r="Q135" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="47"/>
+      <c r="Q135" s="48"/>
     </row>
     <row r="136" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="41"/>
       <c r="C136" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D136" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6895,17 +6926,17 @@
       </c>
       <c r="M136" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N136" s="46"/>
-      <c r="O136" s="46"/>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="48"/>
     </row>
     <row r="137" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="41"/>
       <c r="C137" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D137" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6930,17 +6961,17 @@
       </c>
       <c r="M137" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N137" s="46"/>
-      <c r="O137" s="46"/>
-      <c r="P137" s="46"/>
-      <c r="Q137" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="48"/>
     </row>
     <row r="138" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="41"/>
       <c r="C138" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D138" s="36" t="str">
         <f t="shared" si="6"/>
@@ -6965,17 +6996,17 @@
       </c>
       <c r="M138" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N138" s="46"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="46"/>
-      <c r="Q138" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="47"/>
+      <c r="Q138" s="48"/>
     </row>
     <row r="139" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="41"/>
       <c r="C139" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D139" s="36" t="str">
         <f t="shared" si="6"/>
@@ -7000,17 +7031,17 @@
       </c>
       <c r="M139" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N139" s="46"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="46"/>
-      <c r="Q139" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N139" s="47"/>
+      <c r="O139" s="47"/>
+      <c r="P139" s="47"/>
+      <c r="Q139" s="48"/>
     </row>
     <row r="140" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="41"/>
       <c r="C140" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D140" s="36" t="str">
         <f t="shared" ref="D140:D198" si="11">VLOOKUP(C140,$X$4:$Y$10,1,FALSE)</f>
@@ -7035,17 +7066,17 @@
       </c>
       <c r="M140" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
-      <c r="Q140" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N140" s="47"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="47"/>
+      <c r="Q140" s="48"/>
     </row>
     <row r="141" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="41"/>
       <c r="C141" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D141" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7070,17 +7101,17 @@
       </c>
       <c r="M141" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N141" s="46"/>
-      <c r="O141" s="46"/>
-      <c r="P141" s="46"/>
-      <c r="Q141" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N141" s="47"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="47"/>
+      <c r="Q141" s="48"/>
     </row>
     <row r="142" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="41"/>
       <c r="C142" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D142" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7105,17 +7136,17 @@
       </c>
       <c r="M142" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N142" s="47"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="47"/>
+      <c r="Q142" s="48"/>
     </row>
     <row r="143" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="41"/>
       <c r="C143" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D143" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7140,17 +7171,17 @@
       </c>
       <c r="M143" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
-      <c r="Q143" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="47"/>
+      <c r="Q143" s="48"/>
     </row>
     <row r="144" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="41"/>
       <c r="C144" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D144" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7175,17 +7206,17 @@
       </c>
       <c r="M144" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N144" s="47"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="47"/>
+      <c r="Q144" s="48"/>
     </row>
     <row r="145" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="41"/>
       <c r="C145" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D145" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7210,17 +7241,17 @@
       </c>
       <c r="M145" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N145" s="47"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="47"/>
+      <c r="Q145" s="48"/>
     </row>
     <row r="146" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="41"/>
       <c r="C146" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7245,17 +7276,17 @@
       </c>
       <c r="M146" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="46"/>
-      <c r="Q146" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N146" s="47"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="48"/>
     </row>
     <row r="147" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="41"/>
       <c r="C147" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7280,17 +7311,17 @@
       </c>
       <c r="M147" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N147" s="46"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="46"/>
-      <c r="Q147" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="48"/>
     </row>
     <row r="148" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="41"/>
       <c r="C148" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D148" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7315,17 +7346,17 @@
       </c>
       <c r="M148" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N148" s="46"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
-      <c r="Q148" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="48"/>
     </row>
     <row r="149" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="41"/>
       <c r="C149" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D149" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7350,17 +7381,17 @@
       </c>
       <c r="M149" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
-      <c r="Q149" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="48"/>
     </row>
     <row r="150" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="41"/>
       <c r="C150" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D150" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7385,17 +7416,17 @@
       </c>
       <c r="M150" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
-      <c r="Q150" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="48"/>
     </row>
     <row r="151" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="41"/>
       <c r="C151" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D151" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7420,17 +7451,17 @@
       </c>
       <c r="M151" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N151" s="46"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="46"/>
-      <c r="Q151" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="47"/>
+      <c r="Q151" s="48"/>
     </row>
     <row r="152" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="41"/>
       <c r="C152" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7455,17 +7486,17 @@
       </c>
       <c r="M152" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N152" s="46"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
-      <c r="Q152" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="47"/>
+      <c r="Q152" s="48"/>
     </row>
     <row r="153" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="41"/>
       <c r="C153" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D153" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7490,17 +7521,17 @@
       </c>
       <c r="M153" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="47"/>
+      <c r="Q153" s="48"/>
     </row>
     <row r="154" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="41"/>
       <c r="C154" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D154" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7525,17 +7556,17 @@
       </c>
       <c r="M154" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="46"/>
-      <c r="Q154" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N154" s="47"/>
+      <c r="O154" s="47"/>
+      <c r="P154" s="47"/>
+      <c r="Q154" s="48"/>
     </row>
     <row r="155" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="41"/>
       <c r="C155" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D155" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7560,17 +7591,17 @@
       </c>
       <c r="M155" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N155" s="46"/>
-      <c r="O155" s="46"/>
-      <c r="P155" s="46"/>
-      <c r="Q155" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N155" s="47"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="47"/>
+      <c r="Q155" s="48"/>
     </row>
     <row r="156" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="41"/>
       <c r="C156" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D156" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7595,17 +7626,17 @@
       </c>
       <c r="M156" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N156" s="46"/>
-      <c r="O156" s="46"/>
-      <c r="P156" s="46"/>
-      <c r="Q156" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N156" s="47"/>
+      <c r="O156" s="47"/>
+      <c r="P156" s="47"/>
+      <c r="Q156" s="48"/>
     </row>
     <row r="157" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="41"/>
       <c r="C157" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D157" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7630,17 +7661,17 @@
       </c>
       <c r="M157" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N157" s="46"/>
-      <c r="O157" s="46"/>
-      <c r="P157" s="46"/>
-      <c r="Q157" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N157" s="47"/>
+      <c r="O157" s="47"/>
+      <c r="P157" s="47"/>
+      <c r="Q157" s="48"/>
     </row>
     <row r="158" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="41"/>
       <c r="C158" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D158" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7665,17 +7696,17 @@
       </c>
       <c r="M158" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N158" s="46"/>
-      <c r="O158" s="46"/>
-      <c r="P158" s="46"/>
-      <c r="Q158" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N158" s="47"/>
+      <c r="O158" s="47"/>
+      <c r="P158" s="47"/>
+      <c r="Q158" s="48"/>
     </row>
     <row r="159" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="41"/>
       <c r="C159" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D159" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7700,17 +7731,17 @@
       </c>
       <c r="M159" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
-      <c r="Q159" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N159" s="47"/>
+      <c r="O159" s="47"/>
+      <c r="P159" s="47"/>
+      <c r="Q159" s="48"/>
     </row>
     <row r="160" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="41"/>
       <c r="C160" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D160" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7735,17 +7766,17 @@
       </c>
       <c r="M160" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
-      <c r="Q160" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N160" s="47"/>
+      <c r="O160" s="47"/>
+      <c r="P160" s="47"/>
+      <c r="Q160" s="48"/>
     </row>
     <row r="161" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="41"/>
       <c r="C161" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D161" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7770,17 +7801,17 @@
       </c>
       <c r="M161" s="7">
         <f t="shared" si="10"/>
-        <v>103.681</v>
-      </c>
-      <c r="N161" s="46"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="46"/>
-      <c r="Q161" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N161" s="47"/>
+      <c r="O161" s="47"/>
+      <c r="P161" s="47"/>
+      <c r="Q161" s="48"/>
     </row>
     <row r="162" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="41"/>
       <c r="C162" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D162" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7805,17 +7836,17 @@
       </c>
       <c r="M162" s="7">
         <f t="shared" ref="M162:M198" si="15">L162+M161</f>
-        <v>103.681</v>
-      </c>
-      <c r="N162" s="46"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="46"/>
-      <c r="Q162" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N162" s="47"/>
+      <c r="O162" s="47"/>
+      <c r="P162" s="47"/>
+      <c r="Q162" s="48"/>
     </row>
     <row r="163" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="41"/>
       <c r="C163" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D163" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7840,17 +7871,17 @@
       </c>
       <c r="M163" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
-      <c r="Q163" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N163" s="47"/>
+      <c r="O163" s="47"/>
+      <c r="P163" s="47"/>
+      <c r="Q163" s="48"/>
     </row>
     <row r="164" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="41"/>
       <c r="C164" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D164" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7875,17 +7906,17 @@
       </c>
       <c r="M164" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
-      <c r="Q164" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N164" s="47"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="47"/>
+      <c r="Q164" s="48"/>
     </row>
     <row r="165" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="41"/>
       <c r="C165" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D165" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7910,17 +7941,17 @@
       </c>
       <c r="M165" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N165" s="46"/>
-      <c r="O165" s="46"/>
-      <c r="P165" s="46"/>
-      <c r="Q165" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N165" s="47"/>
+      <c r="O165" s="47"/>
+      <c r="P165" s="47"/>
+      <c r="Q165" s="48"/>
     </row>
     <row r="166" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="41"/>
       <c r="C166" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D166" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7945,17 +7976,17 @@
       </c>
       <c r="M166" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-      <c r="P166" s="46"/>
-      <c r="Q166" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N166" s="47"/>
+      <c r="O166" s="47"/>
+      <c r="P166" s="47"/>
+      <c r="Q166" s="48"/>
     </row>
     <row r="167" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="41"/>
       <c r="C167" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D167" s="36" t="str">
         <f t="shared" si="11"/>
@@ -7980,17 +8011,17 @@
       </c>
       <c r="M167" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N167" s="46"/>
-      <c r="O167" s="46"/>
-      <c r="P167" s="46"/>
-      <c r="Q167" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N167" s="47"/>
+      <c r="O167" s="47"/>
+      <c r="P167" s="47"/>
+      <c r="Q167" s="48"/>
     </row>
     <row r="168" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="41"/>
       <c r="C168" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D168" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8015,17 +8046,17 @@
       </c>
       <c r="M168" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N168" s="46"/>
-      <c r="O168" s="46"/>
-      <c r="P168" s="46"/>
-      <c r="Q168" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N168" s="47"/>
+      <c r="O168" s="47"/>
+      <c r="P168" s="47"/>
+      <c r="Q168" s="48"/>
     </row>
     <row r="169" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="41"/>
       <c r="C169" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D169" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8050,17 +8081,17 @@
       </c>
       <c r="M169" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N169" s="46"/>
-      <c r="O169" s="46"/>
-      <c r="P169" s="46"/>
-      <c r="Q169" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N169" s="47"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="47"/>
+      <c r="Q169" s="48"/>
     </row>
     <row r="170" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="41"/>
       <c r="C170" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D170" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8085,17 +8116,17 @@
       </c>
       <c r="M170" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N170" s="46"/>
-      <c r="O170" s="46"/>
-      <c r="P170" s="46"/>
-      <c r="Q170" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N170" s="47"/>
+      <c r="O170" s="47"/>
+      <c r="P170" s="47"/>
+      <c r="Q170" s="48"/>
     </row>
     <row r="171" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="41"/>
       <c r="C171" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D171" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8120,17 +8151,17 @@
       </c>
       <c r="M171" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N171" s="46"/>
-      <c r="O171" s="46"/>
-      <c r="P171" s="46"/>
-      <c r="Q171" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="47"/>
+      <c r="Q171" s="48"/>
     </row>
     <row r="172" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="41"/>
       <c r="C172" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D172" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8155,17 +8186,17 @@
       </c>
       <c r="M172" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N172" s="46"/>
-      <c r="O172" s="46"/>
-      <c r="P172" s="46"/>
-      <c r="Q172" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N172" s="47"/>
+      <c r="O172" s="47"/>
+      <c r="P172" s="47"/>
+      <c r="Q172" s="48"/>
     </row>
     <row r="173" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="41"/>
       <c r="C173" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D173" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8190,17 +8221,17 @@
       </c>
       <c r="M173" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N173" s="46"/>
-      <c r="O173" s="46"/>
-      <c r="P173" s="46"/>
-      <c r="Q173" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N173" s="47"/>
+      <c r="O173" s="47"/>
+      <c r="P173" s="47"/>
+      <c r="Q173" s="48"/>
     </row>
     <row r="174" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="41"/>
       <c r="C174" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D174" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8225,17 +8256,17 @@
       </c>
       <c r="M174" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N174" s="46"/>
-      <c r="O174" s="46"/>
-      <c r="P174" s="46"/>
-      <c r="Q174" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N174" s="47"/>
+      <c r="O174" s="47"/>
+      <c r="P174" s="47"/>
+      <c r="Q174" s="48"/>
     </row>
     <row r="175" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="41"/>
       <c r="C175" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D175" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8260,17 +8291,17 @@
       </c>
       <c r="M175" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N175" s="46"/>
-      <c r="O175" s="46"/>
-      <c r="P175" s="46"/>
-      <c r="Q175" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N175" s="47"/>
+      <c r="O175" s="47"/>
+      <c r="P175" s="47"/>
+      <c r="Q175" s="48"/>
     </row>
     <row r="176" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="41"/>
       <c r="C176" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D176" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8295,17 +8326,17 @@
       </c>
       <c r="M176" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N176" s="46"/>
-      <c r="O176" s="46"/>
-      <c r="P176" s="46"/>
-      <c r="Q176" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N176" s="47"/>
+      <c r="O176" s="47"/>
+      <c r="P176" s="47"/>
+      <c r="Q176" s="48"/>
     </row>
     <row r="177" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="41"/>
       <c r="C177" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D177" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8330,17 +8361,17 @@
       </c>
       <c r="M177" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N177" s="46"/>
-      <c r="O177" s="46"/>
-      <c r="P177" s="46"/>
-      <c r="Q177" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N177" s="47"/>
+      <c r="O177" s="47"/>
+      <c r="P177" s="47"/>
+      <c r="Q177" s="48"/>
     </row>
     <row r="178" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="41"/>
       <c r="C178" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D178" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8365,17 +8396,17 @@
       </c>
       <c r="M178" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N178" s="46"/>
-      <c r="O178" s="46"/>
-      <c r="P178" s="46"/>
-      <c r="Q178" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N178" s="47"/>
+      <c r="O178" s="47"/>
+      <c r="P178" s="47"/>
+      <c r="Q178" s="48"/>
     </row>
     <row r="179" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="41"/>
       <c r="C179" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D179" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8400,17 +8431,17 @@
       </c>
       <c r="M179" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N179" s="46"/>
-      <c r="O179" s="46"/>
-      <c r="P179" s="46"/>
-      <c r="Q179" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N179" s="47"/>
+      <c r="O179" s="47"/>
+      <c r="P179" s="47"/>
+      <c r="Q179" s="48"/>
     </row>
     <row r="180" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="41"/>
       <c r="C180" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D180" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8435,17 +8466,17 @@
       </c>
       <c r="M180" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N180" s="46"/>
-      <c r="O180" s="46"/>
-      <c r="P180" s="46"/>
-      <c r="Q180" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N180" s="47"/>
+      <c r="O180" s="47"/>
+      <c r="P180" s="47"/>
+      <c r="Q180" s="48"/>
     </row>
     <row r="181" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="41"/>
       <c r="C181" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D181" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8470,17 +8501,17 @@
       </c>
       <c r="M181" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N181" s="46"/>
-      <c r="O181" s="46"/>
-      <c r="P181" s="46"/>
-      <c r="Q181" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N181" s="47"/>
+      <c r="O181" s="47"/>
+      <c r="P181" s="47"/>
+      <c r="Q181" s="48"/>
     </row>
     <row r="182" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="41"/>
       <c r="C182" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D182" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8505,17 +8536,17 @@
       </c>
       <c r="M182" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N182" s="46"/>
-      <c r="O182" s="46"/>
-      <c r="P182" s="46"/>
-      <c r="Q182" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N182" s="47"/>
+      <c r="O182" s="47"/>
+      <c r="P182" s="47"/>
+      <c r="Q182" s="48"/>
     </row>
     <row r="183" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="41"/>
       <c r="C183" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D183" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8540,17 +8571,17 @@
       </c>
       <c r="M183" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N183" s="46"/>
-      <c r="O183" s="46"/>
-      <c r="P183" s="46"/>
-      <c r="Q183" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N183" s="47"/>
+      <c r="O183" s="47"/>
+      <c r="P183" s="47"/>
+      <c r="Q183" s="48"/>
     </row>
     <row r="184" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="41"/>
       <c r="C184" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D184" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8575,17 +8606,17 @@
       </c>
       <c r="M184" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N184" s="46"/>
-      <c r="O184" s="46"/>
-      <c r="P184" s="46"/>
-      <c r="Q184" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N184" s="47"/>
+      <c r="O184" s="47"/>
+      <c r="P184" s="47"/>
+      <c r="Q184" s="48"/>
     </row>
     <row r="185" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="41"/>
       <c r="C185" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D185" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8610,17 +8641,17 @@
       </c>
       <c r="M185" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N185" s="46"/>
-      <c r="O185" s="46"/>
-      <c r="P185" s="46"/>
-      <c r="Q185" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N185" s="47"/>
+      <c r="O185" s="47"/>
+      <c r="P185" s="47"/>
+      <c r="Q185" s="48"/>
     </row>
     <row r="186" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="41"/>
       <c r="C186" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D186" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8645,17 +8676,17 @@
       </c>
       <c r="M186" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N186" s="46"/>
-      <c r="O186" s="46"/>
-      <c r="P186" s="46"/>
-      <c r="Q186" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N186" s="47"/>
+      <c r="O186" s="47"/>
+      <c r="P186" s="47"/>
+      <c r="Q186" s="48"/>
     </row>
     <row r="187" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="41"/>
       <c r="C187" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D187" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8680,17 +8711,17 @@
       </c>
       <c r="M187" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N187" s="46"/>
-      <c r="O187" s="46"/>
-      <c r="P187" s="46"/>
-      <c r="Q187" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N187" s="47"/>
+      <c r="O187" s="47"/>
+      <c r="P187" s="47"/>
+      <c r="Q187" s="48"/>
     </row>
     <row r="188" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="41"/>
       <c r="C188" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D188" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8715,17 +8746,17 @@
       </c>
       <c r="M188" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N188" s="46"/>
-      <c r="O188" s="46"/>
-      <c r="P188" s="46"/>
-      <c r="Q188" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N188" s="47"/>
+      <c r="O188" s="47"/>
+      <c r="P188" s="47"/>
+      <c r="Q188" s="48"/>
     </row>
     <row r="189" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="41"/>
       <c r="C189" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D189" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8750,17 +8781,17 @@
       </c>
       <c r="M189" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N189" s="46"/>
-      <c r="O189" s="46"/>
-      <c r="P189" s="46"/>
-      <c r="Q189" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N189" s="47"/>
+      <c r="O189" s="47"/>
+      <c r="P189" s="47"/>
+      <c r="Q189" s="48"/>
     </row>
     <row r="190" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="41"/>
       <c r="C190" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D190" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8785,17 +8816,17 @@
       </c>
       <c r="M190" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N190" s="46"/>
-      <c r="O190" s="46"/>
-      <c r="P190" s="46"/>
-      <c r="Q190" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N190" s="47"/>
+      <c r="O190" s="47"/>
+      <c r="P190" s="47"/>
+      <c r="Q190" s="48"/>
     </row>
     <row r="191" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="41"/>
       <c r="C191" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D191" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8820,17 +8851,17 @@
       </c>
       <c r="M191" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N191" s="46"/>
-      <c r="O191" s="46"/>
-      <c r="P191" s="46"/>
-      <c r="Q191" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N191" s="47"/>
+      <c r="O191" s="47"/>
+      <c r="P191" s="47"/>
+      <c r="Q191" s="48"/>
     </row>
     <row r="192" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="41"/>
       <c r="C192" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D192" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8855,17 +8886,17 @@
       </c>
       <c r="M192" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N192" s="46"/>
-      <c r="O192" s="46"/>
-      <c r="P192" s="46"/>
-      <c r="Q192" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N192" s="47"/>
+      <c r="O192" s="47"/>
+      <c r="P192" s="47"/>
+      <c r="Q192" s="48"/>
     </row>
     <row r="193" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="41"/>
       <c r="C193" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D193" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8890,17 +8921,17 @@
       </c>
       <c r="M193" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N193" s="46"/>
-      <c r="O193" s="46"/>
-      <c r="P193" s="46"/>
-      <c r="Q193" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N193" s="47"/>
+      <c r="O193" s="47"/>
+      <c r="P193" s="47"/>
+      <c r="Q193" s="48"/>
     </row>
     <row r="194" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="41"/>
       <c r="C194" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D194" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8925,17 +8956,17 @@
       </c>
       <c r="M194" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N194" s="46"/>
-      <c r="O194" s="46"/>
-      <c r="P194" s="46"/>
-      <c r="Q194" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N194" s="47"/>
+      <c r="O194" s="47"/>
+      <c r="P194" s="47"/>
+      <c r="Q194" s="48"/>
     </row>
     <row r="195" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="41"/>
       <c r="C195" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D195" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8960,17 +8991,17 @@
       </c>
       <c r="M195" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N195" s="46"/>
-      <c r="O195" s="46"/>
-      <c r="P195" s="46"/>
-      <c r="Q195" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N195" s="47"/>
+      <c r="O195" s="47"/>
+      <c r="P195" s="47"/>
+      <c r="Q195" s="48"/>
     </row>
     <row r="196" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="41"/>
       <c r="C196" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D196" s="36" t="str">
         <f t="shared" si="11"/>
@@ -8995,17 +9026,17 @@
       </c>
       <c r="M196" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N196" s="46"/>
-      <c r="O196" s="46"/>
-      <c r="P196" s="46"/>
-      <c r="Q196" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N196" s="47"/>
+      <c r="O196" s="47"/>
+      <c r="P196" s="47"/>
+      <c r="Q196" s="48"/>
     </row>
     <row r="197" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="41"/>
       <c r="C197" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D197" s="36" t="str">
         <f t="shared" si="11"/>
@@ -9030,17 +9061,17 @@
       </c>
       <c r="M197" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N197" s="46"/>
-      <c r="O197" s="46"/>
-      <c r="P197" s="46"/>
-      <c r="Q197" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N197" s="47"/>
+      <c r="O197" s="47"/>
+      <c r="P197" s="47"/>
+      <c r="Q197" s="48"/>
     </row>
     <row r="198" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="41"/>
       <c r="C198" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D198" s="36" t="str">
         <f t="shared" si="11"/>
@@ -9065,28 +9096,174 @@
       </c>
       <c r="M198" s="7">
         <f t="shared" si="15"/>
-        <v>103.681</v>
-      </c>
-      <c r="N198" s="46"/>
-      <c r="O198" s="46"/>
-      <c r="P198" s="46"/>
-      <c r="Q198" s="47"/>
+        <v>117.65900000000001</v>
+      </c>
+      <c r="N198" s="47"/>
+      <c r="O198" s="47"/>
+      <c r="P198" s="47"/>
+      <c r="Q198" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E2:J3"/>
-    <mergeCell ref="L2:Q3"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="N196:Q196"/>
+    <mergeCell ref="N197:Q197"/>
+    <mergeCell ref="N198:Q198"/>
+    <mergeCell ref="N190:Q190"/>
+    <mergeCell ref="N191:Q191"/>
+    <mergeCell ref="N192:Q192"/>
+    <mergeCell ref="N193:Q193"/>
+    <mergeCell ref="N194:Q194"/>
+    <mergeCell ref="N185:Q185"/>
+    <mergeCell ref="N186:Q186"/>
+    <mergeCell ref="N187:Q187"/>
+    <mergeCell ref="N188:Q188"/>
+    <mergeCell ref="N189:Q189"/>
+    <mergeCell ref="N180:Q180"/>
+    <mergeCell ref="N181:Q181"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="N183:Q183"/>
+    <mergeCell ref="N184:Q184"/>
+    <mergeCell ref="N175:Q175"/>
+    <mergeCell ref="N176:Q176"/>
+    <mergeCell ref="N177:Q177"/>
+    <mergeCell ref="N178:Q178"/>
+    <mergeCell ref="N179:Q179"/>
+    <mergeCell ref="N170:Q170"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="N172:Q172"/>
+    <mergeCell ref="N173:Q173"/>
+    <mergeCell ref="N174:Q174"/>
+    <mergeCell ref="N165:Q165"/>
+    <mergeCell ref="N166:Q166"/>
+    <mergeCell ref="N167:Q167"/>
+    <mergeCell ref="N168:Q168"/>
+    <mergeCell ref="N169:Q169"/>
+    <mergeCell ref="N160:Q160"/>
+    <mergeCell ref="N161:Q161"/>
+    <mergeCell ref="N162:Q162"/>
+    <mergeCell ref="N163:Q163"/>
+    <mergeCell ref="N164:Q164"/>
+    <mergeCell ref="N155:Q155"/>
+    <mergeCell ref="N156:Q156"/>
+    <mergeCell ref="N157:Q157"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="N159:Q159"/>
+    <mergeCell ref="N150:Q150"/>
+    <mergeCell ref="N151:Q151"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="N153:Q153"/>
+    <mergeCell ref="N154:Q154"/>
+    <mergeCell ref="N145:Q145"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="N147:Q147"/>
+    <mergeCell ref="N148:Q148"/>
+    <mergeCell ref="N149:Q149"/>
+    <mergeCell ref="N140:Q140"/>
+    <mergeCell ref="N141:Q141"/>
+    <mergeCell ref="N142:Q142"/>
+    <mergeCell ref="N143:Q143"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="N135:Q135"/>
+    <mergeCell ref="N136:Q136"/>
+    <mergeCell ref="N137:Q137"/>
+    <mergeCell ref="N138:Q138"/>
+    <mergeCell ref="N139:Q139"/>
+    <mergeCell ref="N130:Q130"/>
+    <mergeCell ref="N131:Q131"/>
+    <mergeCell ref="N132:Q132"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="N125:Q125"/>
+    <mergeCell ref="N126:Q126"/>
+    <mergeCell ref="N127:Q127"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="N129:Q129"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="N121:Q121"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="N110:Q110"/>
+    <mergeCell ref="N111:Q111"/>
+    <mergeCell ref="N112:Q112"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N44:Q44"/>
     <mergeCell ref="N35:Q35"/>
     <mergeCell ref="N36:Q36"/>
     <mergeCell ref="N37:Q37"/>
@@ -9111,165 +9288,19 @@
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="N22:Q22"/>
     <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N105:Q105"/>
-    <mergeCell ref="N106:Q106"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="N101:Q101"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="N110:Q110"/>
-    <mergeCell ref="N111:Q111"/>
-    <mergeCell ref="N112:Q112"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="N125:Q125"/>
-    <mergeCell ref="N126:Q126"/>
-    <mergeCell ref="N127:Q127"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="N129:Q129"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="N121:Q121"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="N135:Q135"/>
-    <mergeCell ref="N136:Q136"/>
-    <mergeCell ref="N137:Q137"/>
-    <mergeCell ref="N138:Q138"/>
-    <mergeCell ref="N139:Q139"/>
-    <mergeCell ref="N130:Q130"/>
-    <mergeCell ref="N131:Q131"/>
-    <mergeCell ref="N132:Q132"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="N145:Q145"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="N147:Q147"/>
-    <mergeCell ref="N148:Q148"/>
-    <mergeCell ref="N149:Q149"/>
-    <mergeCell ref="N140:Q140"/>
-    <mergeCell ref="N141:Q141"/>
-    <mergeCell ref="N142:Q142"/>
-    <mergeCell ref="N143:Q143"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="N155:Q155"/>
-    <mergeCell ref="N156:Q156"/>
-    <mergeCell ref="N157:Q157"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="N159:Q159"/>
-    <mergeCell ref="N150:Q150"/>
-    <mergeCell ref="N151:Q151"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="N154:Q154"/>
-    <mergeCell ref="N165:Q165"/>
-    <mergeCell ref="N166:Q166"/>
-    <mergeCell ref="N167:Q167"/>
-    <mergeCell ref="N168:Q168"/>
-    <mergeCell ref="N169:Q169"/>
-    <mergeCell ref="N160:Q160"/>
-    <mergeCell ref="N161:Q161"/>
-    <mergeCell ref="N162:Q162"/>
-    <mergeCell ref="N163:Q163"/>
-    <mergeCell ref="N164:Q164"/>
-    <mergeCell ref="N175:Q175"/>
-    <mergeCell ref="N176:Q176"/>
-    <mergeCell ref="N177:Q177"/>
-    <mergeCell ref="N178:Q178"/>
-    <mergeCell ref="N179:Q179"/>
-    <mergeCell ref="N170:Q170"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="N172:Q172"/>
-    <mergeCell ref="N173:Q173"/>
-    <mergeCell ref="N174:Q174"/>
-    <mergeCell ref="N185:Q185"/>
-    <mergeCell ref="N186:Q186"/>
-    <mergeCell ref="N187:Q187"/>
-    <mergeCell ref="N188:Q188"/>
-    <mergeCell ref="N189:Q189"/>
-    <mergeCell ref="N180:Q180"/>
-    <mergeCell ref="N181:Q181"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="N183:Q183"/>
-    <mergeCell ref="N184:Q184"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="N196:Q196"/>
-    <mergeCell ref="N197:Q197"/>
-    <mergeCell ref="N198:Q198"/>
-    <mergeCell ref="N190:Q190"/>
-    <mergeCell ref="N191:Q191"/>
-    <mergeCell ref="N192:Q192"/>
-    <mergeCell ref="N193:Q193"/>
-    <mergeCell ref="N194:Q194"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="L2:Q3"/>
   </mergeCells>
   <conditionalFormatting sqref="K11:K198">
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="V">
@@ -9330,11 +9361,13 @@
     <hyperlink ref="B15" r:id="rId2"/>
     <hyperlink ref="E16" r:id="rId3"/>
     <hyperlink ref="E17" r:id="rId4"/>
+    <hyperlink ref="E18" r:id="rId5"/>
+    <hyperlink ref="E19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
